--- a/Doc/Journal-de-Travail_AdrianToledo.xlsx
+++ b/Doc/Journal-de-Travail_AdrianToledo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq17tmn\Documents\GitHub\P_AppMobile_ReadMe\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A78AF-826C-4660-8F82-B6DCAEFEA6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471947FC-0D45-4A5A-9F30-A3A23A9A1579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -275,6 +275,24 @@
   <si>
     <t>Connexion de l'api-db-app réalisée</t>
   </si>
+  <si>
+    <t xml:space="preserve">Création d'une DB adaptée à l'application </t>
+  </si>
+  <si>
+    <t>Affichage d'un livre avec l'api title et l'image</t>
+  </si>
+  <si>
+    <t>Créer une page dédiée à la lecture du livre</t>
+  </si>
+  <si>
+    <t>Lorsque vous cliquez sur l'image du livre, vous êtes redirigé vers la page de lecture avec un message à afficher.</t>
+  </si>
+  <si>
+    <t>Échec : réussir à extraire les informations de l'epub pour les afficher au format texte.</t>
+  </si>
+  <si>
+    <t>Préparation du projet, JRNTRV et soumission sur Github</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +306,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +396,12 @@
       <color rgb="FF0D0D0D"/>
       <name val="Söhne"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -622,7 +646,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -791,6 +889,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1228,7 +1400,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.64583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0416666666666666E-2</c:v>
@@ -1952,18 +2124,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2159,7 +2331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2212,7 +2384,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 16 heurs 30 minutes</v>
+        <v>0 jours 21 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2231,11 +2403,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>990</v>
+        <v>1260</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>990</v>
+        <v>1260</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3296,10 +3468,10 @@
     <row r="54" spans="1:7">
       <c r="A54" s="8">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="47">
-        <v>45425</v>
+        <v>45418</v>
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="49">
@@ -3309,120 +3481,168 @@
         <v>22</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="17">
+      <c r="A55" s="8">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v>20</v>
       </c>
       <c r="B55" s="47">
         <v>45425</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53">
+      <c r="C55" s="48"/>
+      <c r="D55" s="49">
         <v>45</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8">
+      <c r="A56" s="17">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v>20</v>
       </c>
       <c r="B56" s="47">
         <v>45425</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49">
+      <c r="C56" s="52"/>
+      <c r="D56" s="53">
         <v>45</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8">
+        <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
+        <v>20</v>
+      </c>
+      <c r="B57" s="47">
+        <v>45425</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49">
+        <v>45</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17" t="str">
-        <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
-        <v/>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8" t="str">
+      <c r="A58" s="8">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
-        <v/>
-      </c>
-      <c r="B58" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B58" s="47">
+        <v>45425</v>
+      </c>
       <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="16"/>
+      <c r="D58" s="49">
+        <v>45</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="17" t="str">
+      <c r="A59" s="17">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
-        <v/>
-      </c>
-      <c r="B59" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B59" s="51">
+        <v>45439</v>
+      </c>
       <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="18"/>
+      <c r="D59" s="53">
+        <v>45</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8" t="str">
+    <row r="60" spans="1:7" ht="31.5">
+      <c r="A60" s="17">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
-        <v/>
-      </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="B60" s="51">
+        <v>45440</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53">
+        <v>45</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="17" t="str">
+      <c r="A61" s="17">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
-        <v/>
-      </c>
-      <c r="B61" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B61" s="51">
+        <v>45441</v>
+      </c>
       <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="18"/>
+      <c r="D61" s="53">
+        <v>45</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8" t="str">
+      <c r="A62" s="17">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
-        <v/>
-      </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="B62" s="51">
+        <v>45442</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53">
+        <v>45</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7">
@@ -9071,29 +9291,30 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9172,7 +9393,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>660</v>
+        <v>930</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9180,7 +9401,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9289,7 +9510,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.68749999999999989</v>
+        <v>0.87499999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9314,15 +9535,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9545,6 +9757,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9557,14 +9778,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9581,4 +9794,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>